--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2023-08-07</t>
+          <t>2023-07-31/2023-08-06</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2023-08-08</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2023-08-09</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2023-08-10</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2023-08-11</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2023-08-12</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2023-08-13</t>
+          <t>2023-08-07/2023-08-13</t>
         </is>
       </c>
     </row>
@@ -482,25 +457,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61011811</v>
+        <v>495593858</v>
       </c>
       <c r="C2" t="n">
-        <v>92296439</v>
-      </c>
-      <c r="D2" t="n">
-        <v>94016324</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91122973</v>
-      </c>
-      <c r="F2" t="n">
-        <v>93595597</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91298794</v>
-      </c>
-      <c r="H2" t="n">
-        <v>108056009</v>
+        <v>827846779</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Зоотовары/Для лошадей</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6854784</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7238372</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2023-07-31/2023-08-06</t>
+          <t>2023-06-01/2023-06-30</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2023-08-07/2023-08-13</t>
+          <t>2023-07-01/2023-07-31</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-01/2023-08-31</t>
         </is>
       </c>
     </row>
@@ -457,10 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495593858</v>
+        <v>3225942092</v>
       </c>
       <c r="C2" t="n">
-        <v>827846779</v>
+        <v>3430386885</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4498424312</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6854784</v>
+        <v>32326472</v>
       </c>
       <c r="C3" t="n">
-        <v>7238372</v>
+        <v>31892536</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32020650</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,50 +441,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2023-06-01/2023-06-30</t>
+          <t>2023-08-29/2023-08-29</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2023-07-01/2023-07-31</t>
+          <t>2023-08-30/2023-08-30</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2023-08-01/2023-08-31</t>
+          <t>2023-08-31/2023-08-31</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Женщинам/Джинсы</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3225942092</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3430386885</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4498424312</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
           <t>Зоотовары/Для лошадей</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>32326472</v>
-      </c>
-      <c r="C3" t="n">
-        <v>31892536</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32020650</v>
+      <c r="B2" t="n">
+        <v>982390</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1011278</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1025200</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>category</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2023-08-29/2023-08-29</t>
+          <t>sales 2023-08-29/2023-08-29</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2023-08-30/2023-08-30</t>
+          <t>sales 2023-08-30/2023-08-30</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2023-08-31/2023-08-31</t>
+          <t>sales 2023-08-31/2023-08-31</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>revenue 2023-08-29/2023-08-29</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>revenue 2023-08-30/2023-08-30</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>revenue 2023-08-31/2023-08-31</t>
         </is>
       </c>
     </row>
@@ -462,12 +477,21 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>2216</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2270</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2264</v>
+      </c>
+      <c r="E2" t="n">
         <v>982390</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>1011278</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>1025200</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,63 +436,347 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>sales 2023-08-29/2023-08-29</t>
+          <t>Склад</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>sales 2023-08-30/2023-08-30</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sales 2023-08-31/2023-08-31</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>revenue 2023-08-29/2023-08-29</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>revenue 2023-08-30/2023-08-30</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>revenue 2023-08-31/2023-08-31</t>
+          <t>Balance</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Зоотовары/Для лошадей</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2216</v>
+          <t>51903406</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Коледино</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>2270</v>
+        <v>132</v>
       </c>
       <c r="D2" t="n">
-        <v>2264</v>
-      </c>
-      <c r="E2" t="n">
-        <v>982390</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1011278</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1025200</v>
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>51903406</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>101</v>
+      </c>
+      <c r="D3" t="n">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>51903406</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Электросталь</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>117</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>51903406</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Краснодар 2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>51903406</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Алексин (Тула)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>19663908</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Коледино</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>19663908</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Подольск 2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>19663908</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>19663908</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Электросталь</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>14</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>19663908</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург 2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>454</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60633</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>19663908</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Алексин (Тула)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1386</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15715</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>19663908</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Невинномысск</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>705</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16282</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>19663908</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Екатеринбург</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>19663908</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Хабаровск</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>19663908</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Краснодар 2</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>19663908</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>19663908</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Новосибирск</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>19663908</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Белые Столбы</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
